--- a/spec/test_data/逐次開かれるBook.xlsx
+++ b/spec/test_data/逐次開かれるBook.xlsx
@@ -13,6 +13,19 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>あいうえお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,8 +69,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,13 +441,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>